--- a/HTML/META-INF/resources/dataforms/devtool/exceltemplate/tableSpec.xlsx
+++ b/HTML/META-INF/resources/dataforms/devtool/exceltemplate/tableSpec.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1037,77 +1035,77 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1406,7 +1404,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1418,89 +1416,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickTop="1" thickBot="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="19" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" thickTop="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1515,12 +1513,12 @@
       <c r="E7" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1535,12 +1533,12 @@
       <c r="E8" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1555,12 +1553,12 @@
       <c r="E9" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1575,12 +1573,12 @@
       <c r="E10" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1595,12 +1593,12 @@
       <c r="E11" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1615,12 +1613,12 @@
       <c r="E12" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1635,12 +1633,12 @@
       <c r="E13" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1655,12 +1653,12 @@
       <c r="E14" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1675,12 +1673,12 @@
       <c r="E15" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1695,12 +1693,12 @@
       <c r="E16" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1715,12 +1713,12 @@
       <c r="E17" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1735,12 +1733,12 @@
       <c r="E18" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1755,12 +1753,12 @@
       <c r="E19" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1775,12 +1773,12 @@
       <c r="E20" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1795,12 +1793,12 @@
       <c r="E21" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1815,12 +1813,12 @@
       <c r="E22" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1835,12 +1833,12 @@
       <c r="E23" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1855,12 +1853,12 @@
       <c r="E24" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1875,12 +1873,12 @@
       <c r="E25" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1895,12 +1893,12 @@
       <c r="E26" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -1915,12 +1913,12 @@
       <c r="E27" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1935,12 +1933,12 @@
       <c r="E28" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1955,12 +1953,12 @@
       <c r="E29" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1975,12 +1973,12 @@
       <c r="E30" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1995,12 +1993,12 @@
       <c r="E31" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -2015,12 +2013,12 @@
       <c r="E32" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2035,12 +2033,12 @@
       <c r="E33" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -2055,12 +2053,12 @@
       <c r="E34" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -2075,27 +2073,27 @@
       <c r="E35" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="11" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2113,32 +2111,4 @@
   <pageMargins left="0.35" right="0.26" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/HTML/META-INF/resources/dataforms/devtool/exceltemplate/tableSpec.xlsx
+++ b/HTML/META-INF/resources/dataforms/devtool/exceltemplate/tableSpec.xlsx
@@ -7,20 +7,17 @@
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="list" sheetId="2" r:id="rId1"/>
+    <sheet name="spec" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="346">
   <si>
     <t>テーブルクラス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$tableClassName</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -644,10 +641,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$tableName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テーブルコメント</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -663,15 +656,474 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$tableComment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テーブル定義書</t>
     <rPh sb="4" eb="7">
       <t>テイギショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$tableName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$tableList[0].no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$tableComment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$tableList[0].tableName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$tableList[0].tableComment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$tableList[0].tableClassName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$tableClassName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$tableList[1].no</t>
+  </si>
+  <si>
+    <t>$tableList[1].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[1].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[1].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[2].no</t>
+  </si>
+  <si>
+    <t>$tableList[2].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[2].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[2].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[3].no</t>
+  </si>
+  <si>
+    <t>$tableList[3].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[3].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[3].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[4].no</t>
+  </si>
+  <si>
+    <t>$tableList[4].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[4].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[4].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[5].no</t>
+  </si>
+  <si>
+    <t>$tableList[5].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[5].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[5].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[6].no</t>
+  </si>
+  <si>
+    <t>$tableList[6].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[6].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[6].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[7].no</t>
+  </si>
+  <si>
+    <t>$tableList[7].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[7].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[7].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[8].no</t>
+  </si>
+  <si>
+    <t>$tableList[8].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[8].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[8].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[9].no</t>
+  </si>
+  <si>
+    <t>$tableList[9].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[9].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[9].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[10].no</t>
+  </si>
+  <si>
+    <t>$tableList[10].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[10].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[10].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[11].no</t>
+  </si>
+  <si>
+    <t>$tableList[11].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[11].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[11].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[12].no</t>
+  </si>
+  <si>
+    <t>$tableList[12].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[12].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[12].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[13].no</t>
+  </si>
+  <si>
+    <t>$tableList[13].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[13].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[13].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[14].no</t>
+  </si>
+  <si>
+    <t>$tableList[14].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[14].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[14].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[15].no</t>
+  </si>
+  <si>
+    <t>$tableList[15].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[15].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[15].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[16].no</t>
+  </si>
+  <si>
+    <t>$tableList[16].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[16].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[16].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[17].no</t>
+  </si>
+  <si>
+    <t>$tableList[17].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[17].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[17].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[18].no</t>
+  </si>
+  <si>
+    <t>$tableList[18].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[18].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[18].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[19].no</t>
+  </si>
+  <si>
+    <t>$tableList[19].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[19].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[19].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[20].no</t>
+  </si>
+  <si>
+    <t>$tableList[20].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[20].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[20].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[21].no</t>
+  </si>
+  <si>
+    <t>$tableList[21].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[21].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[21].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[22].no</t>
+  </si>
+  <si>
+    <t>$tableList[22].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[22].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[22].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[23].no</t>
+  </si>
+  <si>
+    <t>$tableList[23].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[23].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[23].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[24].no</t>
+  </si>
+  <si>
+    <t>$tableList[24].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[24].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[24].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[25].no</t>
+  </si>
+  <si>
+    <t>$tableList[25].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[25].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[25].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[26].no</t>
+  </si>
+  <si>
+    <t>$tableList[26].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[26].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[26].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[27].no</t>
+  </si>
+  <si>
+    <t>$tableList[27].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[27].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[27].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[28].no</t>
+  </si>
+  <si>
+    <t>$tableList[28].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[28].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[28].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[29].no</t>
+  </si>
+  <si>
+    <t>$tableList[29].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[29].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[29].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[30].no</t>
+  </si>
+  <si>
+    <t>$tableList[30].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[30].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[30].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[31].no</t>
+  </si>
+  <si>
+    <t>$tableList[31].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[31].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[31].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[32].no</t>
+  </si>
+  <si>
+    <t>$tableList[32].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[32].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[32].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[33].no</t>
+  </si>
+  <si>
+    <t>$tableList[33].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[33].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[33].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[34].no</t>
+  </si>
+  <si>
+    <t>$tableList[34].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[34].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[34].tableClassName</t>
+  </si>
+  <si>
+    <t>$tableList[35].no</t>
+  </si>
+  <si>
+    <t>$tableList[35].tableName</t>
+  </si>
+  <si>
+    <t>$tableList[35].tableComment</t>
+  </si>
+  <si>
+    <t>$tableList[35].tableClassName</t>
   </si>
 </sst>
 </file>
@@ -735,7 +1187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1013,13 +1465,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1080,6 +1547,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1106,6 +1579,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1401,10 +1895,562 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="42.375" customWidth="1"/>
+    <col min="4" max="4" width="51.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" thickBot="1">
+      <c r="A1" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A2" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" thickTop="1">
+      <c r="A3" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A38" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>345</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1416,42 +2462,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A1" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="A1" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A2" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="21" t="s">
+      <c r="A2" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickTop="1" thickBot="1">
-      <c r="A3" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="24"/>
+      <c r="A3" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1">
       <c r="B4" s="1"/>
@@ -1459,642 +2505,642 @@
     </row>
     <row r="5" spans="1:6" ht="14.25" thickBot="1">
       <c r="A5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="C5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>5</v>
-      </c>
       <c r="F5" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" thickTop="1">
       <c r="A6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>9</v>
-      </c>
       <c r="F6" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E25" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E26" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="E29" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="E30" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="E31" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E32" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E33" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="E35" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" thickBot="1">
       <c r="A36" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="C36" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>161</v>
-      </c>
       <c r="E36" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/HTML/META-INF/resources/dataforms/devtool/exceltemplate/tableSpec.xlsx
+++ b/HTML/META-INF/resources/dataforms/devtool/exceltemplate/tableSpec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -1553,6 +1553,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1579,27 +1600,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1897,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1910,12 +1910,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" thickBot="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="14.25" thickBot="1">
       <c r="A2" s="21" t="s">
@@ -1927,511 +1927,511 @@
       <c r="C2" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="26" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" thickTop="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="25" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="25" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="25" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="25" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="25" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="25" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="25" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="25" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="25" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="25" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="25" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="25" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="25" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="25" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="25" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="25" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="25" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="25" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="25" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="25" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="25" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="25" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="25" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="25" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="25" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="25" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="25" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="25" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="25" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="25" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="25" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="25" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="25" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="25" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="25" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" thickBot="1">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="23" t="s">
         <v>345</v>
       </c>
     </row>
@@ -2442,6 +2442,9 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2449,55 +2452,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="5.25" customWidth="1"/>
-    <col min="3" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="6" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
+    <col min="6" max="6" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="23" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickTop="1" thickBot="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1">
       <c r="B4" s="1"/>
@@ -3154,7 +3159,10 @@
     <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.35" right="0.26" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>